--- a/artfynd/A 42391-2021.xlsx
+++ b/artfynd/A 42391-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1492,6 +1492,458 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112292298</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90843</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Umeå (Umeå), Vb</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>763579</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7089646</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>André Larencranz</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>André Larencranz</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112344251</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90843</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Umeå (Umeå), Vb</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>763530</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7089425</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>12:29</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>12:29</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>André Larencranz</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>André Larencranz</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112344188</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Umeå (Umeå), Vb</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>763543</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7089426</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>André Larencranz</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>André Larencranz</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112344211</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Umeå (Umeå), Vb</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>763527</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7089456</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>André Larencranz</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>André Larencranz</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 42391-2021.xlsx
+++ b/artfynd/A 42391-2021.xlsx
@@ -1497,7 +1497,7 @@
         <v>112292298</v>
       </c>
       <c r="B9" t="n">
-        <v>90843</v>
+        <v>90857</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112344251</v>
+        <v>112344211</v>
       </c>
       <c r="B10" t="n">
-        <v>90843</v>
+        <v>90837</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1623,21 +1623,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5448</v>
+        <v>5966</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>763530</v>
+        <v>763527</v>
       </c>
       <c r="R10" t="n">
-        <v>7089425</v>
+        <v>7089456</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1723,7 +1723,7 @@
         <v>112344188</v>
       </c>
       <c r="B11" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1833,10 +1833,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112344211</v>
+        <v>112344251</v>
       </c>
       <c r="B12" t="n">
-        <v>90823</v>
+        <v>90857</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1849,21 +1849,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>763527</v>
+        <v>763530</v>
       </c>
       <c r="R12" t="n">
-        <v>7089456</v>
+        <v>7089425</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 42391-2021.xlsx
+++ b/artfynd/A 42391-2021.xlsx
@@ -1607,10 +1607,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112344211</v>
+        <v>112344188</v>
       </c>
       <c r="B10" t="n">
-        <v>90837</v>
+        <v>90814</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,25 +1619,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>763527</v>
+        <v>763543</v>
       </c>
       <c r="R10" t="n">
-        <v>7089456</v>
+        <v>7089426</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1720,10 +1720,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112344188</v>
+        <v>112344251</v>
       </c>
       <c r="B11" t="n">
-        <v>90814</v>
+        <v>90857</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1732,25 +1732,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>763543</v>
+        <v>763530</v>
       </c>
       <c r="R11" t="n">
-        <v>7089426</v>
+        <v>7089425</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1833,10 +1833,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112344251</v>
+        <v>112344211</v>
       </c>
       <c r="B12" t="n">
-        <v>90857</v>
+        <v>90837</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1849,21 +1849,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5448</v>
+        <v>5966</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>763530</v>
+        <v>763527</v>
       </c>
       <c r="R12" t="n">
-        <v>7089425</v>
+        <v>7089456</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD12" t="b">
